--- a/data/group-a-4.xlsx
+++ b/data/group-a-4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirmal/Documents/ML_DS/ml_dsc_cell/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirmal/Documents/data_science/microDSC_error_prediction_ANN/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A26F559-816F-F344-B52F-189F32318F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F23B1D-21A1-8848-A588-DD674C6022D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1580" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -84,7 +77,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -372,7 +365,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -383,7 +376,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -416,11 +409,11 @@
       <c r="I1">
         <v>1.3451439999999999</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
